--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Test-plan\manar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Test-plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EA3D78CE-F889-4943-A1D8-EA4717F3CE2F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6E5369CA-F1E2-4321-88A1-93BBF52E6873}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" activeTab="2" xr2:uid="{0B29F114-49F6-4AE1-855B-2171CEDD9067}"/>
   </bookViews>
@@ -27,30 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
   <si>
     <t>Expected Result</t>
   </si>
   <si>
     <t>Actual Outcome</t>
-  </si>
-  <si>
-    <t>S.No.</t>
-  </si>
-  <si>
-    <t>Parameter</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Test plan identifier</t>
-  </si>
-  <si>
-    <t>number to identify this test plan, its level and the level of software that it is related to</t>
-  </si>
-  <si>
-    <t>Introduction</t>
   </si>
   <si>
     <t>gives correct answer</t>
@@ -246,29 +228,43 @@
 4.press in equal to show the result</t>
   </si>
   <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>Verify   that the calculator  can changes
+the sign of the numbers</t>
+  </si>
+  <si>
     <t>1.press any positive number
 2.press any operater
 3.press any negative number
-4.press in equal to show the result</t>
+4.press in equal to show the result
+5.repeat above steps for all operations</t>
   </si>
   <si>
     <t>1.press any negative number
 2.press any operater
 3.press any positive number
-4.press in equal to show the result</t>
+4.press in equal to show the result
+5.repeat above steps for all operations</t>
   </si>
   <si>
     <t>1.press any negative number
 2.press any operater
 3.press any negative number
-4.press in equal to show the result</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>Verify   that the calculator  can changes
-the sign of the numbers</t>
+4.press in equal to show the result
+5.repeat above steps for all operations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varify that Calculator replaces the default
+when press on another number </t>
+  </si>
+  <si>
+    <t>1.press clear
+2.press any number</t>
+  </si>
+  <si>
+    <t>Calculator should replace the defualt values with the number that entered</t>
   </si>
 </sst>
 </file>
@@ -695,7 +691,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,34 +702,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -760,7 +737,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,19 +752,19 @@
   <sheetData>
     <row r="1" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>0</v>
@@ -796,7 +773,7 @@
         <v>1</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -807,19 +784,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -830,17 +807,17 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -851,17 +828,17 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -872,20 +849,20 @@
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -893,17 +870,17 @@
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -914,17 +891,17 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -935,17 +912,17 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -956,17 +933,17 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -977,17 +954,17 @@
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -998,16 +975,16 @@
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1018,16 +995,16 @@
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1038,19 +1015,19 @@
         <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1058,16 +1035,16 @@
         <v>13</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="F14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1075,16 +1052,16 @@
         <v>14</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="F15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1092,20 +1069,28 @@
         <v>15</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="F16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>16</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
